--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1653286.186087884</v>
+        <v>1650992.59063129</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>66.60079400827621</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.34649432395126</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>116.834612197964</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>380.4808534209824</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>228.8563935857049</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>260.6995800236712</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>99.84252126103702</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>23.79925355567548</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>108.8314371278621</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>106.194987893508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135634</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520931</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>172.5702346036278</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>27.34574348918664</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027318</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>16.77337404802782</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229297</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>10.63412424768437</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2369,7 +2369,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>133.8107367464759</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.1993981714617</v>
+        <v>217.8886059122779</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892451</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>136.675596541134</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>184.6527153981506</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>54.32649042089665</v>
+        <v>165.5241382922698</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,16 +3478,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>219.451704186651</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8253826161895517</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428033</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238295</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.307475200959</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>78.34975387299224</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1163.744434193592</v>
+        <v>864.8611267254487</v>
       </c>
       <c r="C2" t="n">
-        <v>1163.744434193592</v>
+        <v>495.898609785037</v>
       </c>
       <c r="D2" t="n">
-        <v>1163.744434193592</v>
+        <v>495.898609785037</v>
       </c>
       <c r="E2" t="n">
-        <v>777.9561815953474</v>
+        <v>495.898609785037</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057398</v>
+        <v>488.9531090358335</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2508.453980598184</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2508.453980598184</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2254.872919862364</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1923.810032518793</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1923.810032518793</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1550.344274257713</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1550.344274257713</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>801.944955774447</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.9856847044969</v>
+        <v>1758.982323005929</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>1590.046140078022</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>1439.929500665686</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>1292.016407083293</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1415.847953794156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1192.869472988892</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1192.869472988892</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>938.1849847830049</v>
+        <v>2389.412917877716</v>
       </c>
       <c r="W4" t="n">
-        <v>648.7678147460443</v>
+        <v>2389.412917877716</v>
       </c>
       <c r="X4" t="n">
-        <v>420.778263848027</v>
+        <v>2161.423366979699</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.9856847044969</v>
+        <v>1940.630787836168</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.038871968309</v>
+        <v>1892.963660013483</v>
       </c>
       <c r="C5" t="n">
-        <v>869.0763550278969</v>
+        <v>1524.001143073071</v>
       </c>
       <c r="D5" t="n">
-        <v>510.8106564211463</v>
+        <v>1165.735444466321</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>1165.735444466321</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>754.7495396767131</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>339.6770895217095</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008242</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.63871203243</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>943.7005868594143</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.464090846021</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1574.131181731201</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1346.141630833184</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1125.349051689654</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2148.434869859537</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1779.472352919126</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1421.206654312375</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1035.418401714131</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>624.4324969245233</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>209.3600467695198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923659</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X8" t="n">
-        <v>2535.034709923659</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y8" t="n">
-        <v>2535.034709923659</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1817.363803514895</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1817.363803514895</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1817.363803514895</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1562.679315309008</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1273.262145272047</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.262145272047</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>2359.115042518991</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>2854.44064873475</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>2854.44064873475</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.0422355233313</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2272.649715293766</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2272.649715293766</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.574488637964</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1728.890000432077</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1439.472830395117</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.483279497099</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.6907003535711</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
         <v>489.9894131830887</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2272.649715293768</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2272.649715293768</v>
       </c>
       <c r="U16" t="n">
-        <v>1949.839117390118</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="V16" t="n">
-        <v>1695.154629184231</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W16" t="n">
-        <v>1405.737459147271</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X16" t="n">
-        <v>1177.747908249253</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y16" t="n">
-        <v>956.9553291057231</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5540,13 +5540,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647281</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368213</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>481.4479471244855</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>481.4479471244855</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>334.5579996265751</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5698,25 +5698,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949679</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206029</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>620.823046892696</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979671</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.36670959104</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935238</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729351</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.18982469239</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794373</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508426</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5978,43 +5978,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2311.800723230285</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2092.199258253227</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1803.124031597425</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1548.439543391538</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1259.022373354577</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1031.03282245656</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,40 +6215,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>614.6217844681063</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>614.6217844681063</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6415,19 +6415,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="Y28" t="n">
-        <v>796.270249298346</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1617.375399479945</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>879.1760994014371</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6686,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2077.590354893597</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1788.515128237794</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1788.515128237794</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.5477693179085</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>593.6115863900017</v>
+        <v>929.7309773356204</v>
       </c>
       <c r="D37" t="n">
-        <v>443.4949469776659</v>
+        <v>779.6143379232847</v>
       </c>
       <c r="E37" t="n">
-        <v>295.5818533952728</v>
+        <v>631.7012443408915</v>
       </c>
       <c r="F37" t="n">
-        <v>148.6919058973624</v>
+        <v>484.8112968429812</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237297</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093767</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876675</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597606</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474248</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.917417812163</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270429</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7339,43 +7339,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614373</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179072</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>620.8230468926974</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1030.918378293891</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>861.9821953659841</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>711.8655559536484</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>563.9524623712553</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1433.359422267661</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1212.566843124131</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>74.83129810813662</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.2980548978878</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>8.456051398014921</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>258.8387309000575</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>148.750764244241</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>206.7713260796039</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>47.21554925516872</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>33.38525518063307</v>
+        <v>0.6960474398169367</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>115.462046782694</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>32.75273492913769</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,16 +25366,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>6.257951202386153</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>145.6085800303796</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194356</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.52450498097832</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>67.07129414993901</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>533677.150411784</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985039</v>
@@ -26335,25 +26335,25 @@
         <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>524645.2897985042</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605448</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551168</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312015</v>
@@ -26430,7 +26430,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768881</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811942.8160112023</v>
+        <v>-811942.8160112025</v>
       </c>
       <c r="C6" t="n">
-        <v>133170.2891451648</v>
+        <v>133170.289145165</v>
       </c>
       <c r="D6" t="n">
         <v>336609.0307572709</v>
       </c>
       <c r="E6" t="n">
-        <v>88163.15384547273</v>
+        <v>88128.41592003668</v>
       </c>
       <c r="F6" t="n">
-        <v>413575.6156528278</v>
+        <v>413540.8777273921</v>
       </c>
       <c r="G6" t="n">
-        <v>413575.615652828</v>
+        <v>413540.877727392</v>
       </c>
       <c r="H6" t="n">
-        <v>413575.6156528278</v>
+        <v>413540.8777273921</v>
       </c>
       <c r="I6" t="n">
-        <v>413575.6156528278</v>
+        <v>413540.8777273921</v>
       </c>
       <c r="J6" t="n">
-        <v>245970.4378428454</v>
+        <v>245935.6999174096</v>
       </c>
       <c r="K6" t="n">
-        <v>364465.5229467734</v>
+        <v>364430.7850213377</v>
       </c>
       <c r="L6" t="n">
-        <v>413575.6156528279</v>
+        <v>413540.877727392</v>
       </c>
       <c r="M6" t="n">
-        <v>328520.5877173161</v>
+        <v>328485.8497918805</v>
       </c>
       <c r="N6" t="n">
-        <v>413575.6156528278</v>
+        <v>413540.8777273925</v>
       </c>
       <c r="O6" t="n">
-        <v>413575.6156528277</v>
+        <v>413540.8777273922</v>
       </c>
       <c r="P6" t="n">
-        <v>413575.6156528281</v>
+        <v>413540.8777273921</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26805,13 +26805,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>344.9469087646778</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>70.1057210748431</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>77.82784816377341</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>80.94049690661271</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.449516651279339</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>65.75137080161556</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,10 +27831,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>25.82341831291984</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>194.7652431262835</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>362.4386851003781</v>
       </c>
     </row>
     <row r="9">
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>80.93758820357981</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.220737668510449e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29724,7 +29724,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30156,7 +30156,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-2.163473208342858e-13</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30438,7 +30438,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250648</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,10 +32072,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>320.9147064709962</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175677</v>
@@ -32546,10 +32546,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>393.3904345522228</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>508.7132618620056</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34793,10 +34793,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507058</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>189.5729943876629</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L17" t="n">
         <v>632.079992146269</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>20.54758114884936</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>254.8360547723487</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066231</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
